--- a/Shilpa_Project_3/Unorganised folder/Yearly_Average.xlsx
+++ b/Shilpa_Project_3/Unorganised folder/Yearly_Average.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shilpa/Desktop/Desktop/RICE_DATA/Project_3/Shilpa_Project_3/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive\Homework\Project_3\Shilpa_Project_3\Unorganised folder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{94379106-1770-964D-9A07-1CF00EC1A04B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="123" documentId="8_{94379106-1770-964D-9A07-1CF00EC1A04B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{69047307-2961-44C9-9214-D9415BAA3BB4}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="960" windowWidth="25040" windowHeight="13680" xr2:uid="{39EFDBC3-33B4-0B40-8C5C-6DE790CA1423}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{39EFDBC3-33B4-0B40-8C5C-6DE790CA1423}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$AM$139</definedName>
+  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -454,7 +457,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/yy"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -563,7 +566,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -591,13 +594,10 @@
     <xf numFmtId="1" fontId="2" fillId="4" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous"/>
+    <xf numFmtId="1" fontId="2" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="1" fontId="2" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -915,15 +915,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39DA18B2-75BC-1C4C-84CB-650B2C10EA6E}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:AM139"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:AM139"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.59765625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:39">
+    <row r="1" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="2">
         <v>1982</v>
@@ -1040,7 +1044,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="2" spans="1:39">
+    <row r="2" spans="1:39" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
@@ -1159,7 +1163,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="3" spans="1:39">
+    <row r="3" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>1</v>
       </c>
@@ -1278,7 +1282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:39">
+    <row r="4" spans="1:39" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>2</v>
       </c>
@@ -1397,7 +1401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:39">
+    <row r="5" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>3</v>
       </c>
@@ -1516,7 +1520,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="6" spans="1:39">
+    <row r="6" spans="1:39" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>4</v>
       </c>
@@ -1635,7 +1639,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="7" spans="1:39">
+    <row r="7" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>5</v>
       </c>
@@ -1754,7 +1758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:39">
+    <row r="8" spans="1:39" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>6</v>
       </c>
@@ -1873,7 +1877,7 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="9" spans="1:39">
+    <row r="9" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>7</v>
       </c>
@@ -1992,7 +1996,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="10" spans="1:39">
+    <row r="10" spans="1:39" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>8</v>
       </c>
@@ -2111,7 +2115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:39">
+    <row r="11" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
         <v>9</v>
       </c>
@@ -2230,7 +2234,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:39">
+    <row r="12" spans="1:39" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
         <v>10</v>
       </c>
@@ -2349,7 +2353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:39">
+    <row r="13" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
         <v>11</v>
       </c>
@@ -2468,7 +2472,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="14" spans="1:39">
+    <row r="14" spans="1:39" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
         <v>12</v>
       </c>
@@ -2587,7 +2591,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:39">
+    <row r="15" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
         <v>13</v>
       </c>
@@ -2706,7 +2710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:39">
+    <row r="16" spans="1:39" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
         <v>14</v>
       </c>
@@ -2825,7 +2829,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="17" spans="1:39">
+    <row r="17" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
         <v>15</v>
       </c>
@@ -2944,7 +2948,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="18" spans="1:39">
+    <row r="18" spans="1:39" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
         <v>16</v>
       </c>
@@ -3063,7 +3067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:39">
+    <row r="19" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
         <v>17</v>
       </c>
@@ -3182,7 +3186,7 @@
         <v>16.899999999999999</v>
       </c>
     </row>
-    <row r="20" spans="1:39">
+    <row r="20" spans="1:39" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
         <v>18</v>
       </c>
@@ -3301,7 +3305,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:39">
+    <row r="21" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
         <v>19</v>
       </c>
@@ -3420,7 +3424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:39">
+    <row r="22" spans="1:39" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="s">
         <v>20</v>
       </c>
@@ -3539,7 +3543,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:39">
+    <row r="23" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
         <v>21</v>
       </c>
@@ -3658,7 +3662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:39">
+    <row r="24" spans="1:39" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
         <v>22</v>
       </c>
@@ -3777,7 +3781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:39">
+    <row r="25" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="s">
         <v>23</v>
       </c>
@@ -3896,7 +3900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:39">
+    <row r="26" spans="1:39" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26" s="6" t="s">
         <v>24</v>
       </c>
@@ -4015,7 +4019,7 @@
         <v>17.8</v>
       </c>
     </row>
-    <row r="27" spans="1:39">
+    <row r="27" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A27" s="6" t="s">
         <v>25</v>
       </c>
@@ -4134,7 +4138,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:39">
+    <row r="28" spans="1:39" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28" s="6" t="s">
         <v>26</v>
       </c>
@@ -4253,7 +4257,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="29" spans="1:39">
+    <row r="29" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A29" s="6" t="s">
         <v>27</v>
       </c>
@@ -4372,7 +4376,7 @@
         <v>14.6</v>
       </c>
     </row>
-    <row r="30" spans="1:39">
+    <row r="30" spans="1:39" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30" s="7" t="s">
         <v>28</v>
       </c>
@@ -4491,7 +4495,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:39">
+    <row r="31" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A31" s="7" t="s">
         <v>29</v>
       </c>
@@ -4610,7 +4614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:39">
+    <row r="32" spans="1:39" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32" s="8" t="s">
         <v>30</v>
       </c>
@@ -4729,7 +4733,7 @@
         <v>60.8</v>
       </c>
     </row>
-    <row r="33" spans="1:39">
+    <row r="33" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A33" s="8" t="s">
         <v>31</v>
       </c>
@@ -4848,7 +4852,7 @@
         <v>5.7</v>
       </c>
     </row>
-    <row r="34" spans="1:39">
+    <row r="34" spans="1:39" hidden="1" x14ac:dyDescent="0.3">
       <c r="A34" s="9" t="s">
         <v>32</v>
       </c>
@@ -4967,7 +4971,7 @@
         <v>39.799999999999997</v>
       </c>
     </row>
-    <row r="35" spans="1:39">
+    <row r="35" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A35" s="9" t="s">
         <v>33</v>
       </c>
@@ -5086,7 +5090,7 @@
         <v>19.7</v>
       </c>
     </row>
-    <row r="36" spans="1:39">
+    <row r="36" spans="1:39" hidden="1" x14ac:dyDescent="0.3">
       <c r="A36" s="9" t="s">
         <v>34</v>
       </c>
@@ -5205,7 +5209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:39">
+    <row r="37" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A37" s="9" t="s">
         <v>35</v>
       </c>
@@ -5324,7 +5328,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:39">
+    <row r="38" spans="1:39" hidden="1" x14ac:dyDescent="0.3">
       <c r="A38" s="6" t="s">
         <v>36</v>
       </c>
@@ -5443,7 +5447,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="39" spans="1:39">
+    <row r="39" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A39" s="6" t="s">
         <v>37</v>
       </c>
@@ -5562,7 +5566,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="40" spans="1:39">
+    <row r="40" spans="1:39" hidden="1" x14ac:dyDescent="0.3">
       <c r="A40" s="9" t="s">
         <v>38</v>
       </c>
@@ -5681,7 +5685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:39">
+    <row r="41" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A41" s="9" t="s">
         <v>39</v>
       </c>
@@ -5800,7 +5804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:39">
+    <row r="42" spans="1:39" hidden="1" x14ac:dyDescent="0.3">
       <c r="A42" s="9" t="s">
         <v>40</v>
       </c>
@@ -5919,7 +5923,7 @@
         <v>72.900000000000006</v>
       </c>
     </row>
-    <row r="43" spans="1:39">
+    <row r="43" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A43" s="9" t="s">
         <v>41</v>
       </c>
@@ -6038,7 +6042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:39">
+    <row r="44" spans="1:39" hidden="1" x14ac:dyDescent="0.3">
       <c r="A44" s="6" t="s">
         <v>42</v>
       </c>
@@ -6157,7 +6161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:39">
+    <row r="45" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A45" s="6" t="s">
         <v>43</v>
       </c>
@@ -6276,7 +6280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:39">
+    <row r="46" spans="1:39" hidden="1" x14ac:dyDescent="0.3">
       <c r="A46" s="9" t="s">
         <v>44</v>
       </c>
@@ -6395,7 +6399,7 @@
         <v>44.9</v>
       </c>
     </row>
-    <row r="47" spans="1:39">
+    <row r="47" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A47" s="9" t="s">
         <v>45</v>
       </c>
@@ -6514,7 +6518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:39">
+    <row r="48" spans="1:39" hidden="1" x14ac:dyDescent="0.3">
       <c r="A48" s="6" t="s">
         <v>46</v>
       </c>
@@ -6633,7 +6637,7 @@
         <v>52.9</v>
       </c>
     </row>
-    <row r="49" spans="1:39">
+    <row r="49" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A49" s="6" t="s">
         <v>47</v>
       </c>
@@ -6752,7 +6756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:39">
+    <row r="50" spans="1:39" hidden="1" x14ac:dyDescent="0.3">
       <c r="A50" s="6" t="s">
         <v>48</v>
       </c>
@@ -6871,7 +6875,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="51" spans="1:39">
+    <row r="51" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A51" s="6" t="s">
         <v>49</v>
       </c>
@@ -6990,7 +6994,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="52" spans="1:39">
+    <row r="52" spans="1:39" hidden="1" x14ac:dyDescent="0.3">
       <c r="A52" s="9" t="s">
         <v>50</v>
       </c>
@@ -7109,7 +7113,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="53" spans="1:39">
+    <row r="53" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A53" s="9" t="s">
         <v>51</v>
       </c>
@@ -7228,7 +7232,7 @@
         <v>9.6</v>
       </c>
     </row>
-    <row r="54" spans="1:39">
+    <row r="54" spans="1:39" hidden="1" x14ac:dyDescent="0.3">
       <c r="A54" s="9" t="s">
         <v>52</v>
       </c>
@@ -7347,7 +7351,7 @@
         <v>96.4</v>
       </c>
     </row>
-    <row r="55" spans="1:39">
+    <row r="55" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A55" s="9" t="s">
         <v>53</v>
       </c>
@@ -7466,7 +7470,7 @@
         <v>19.399999999999999</v>
       </c>
     </row>
-    <row r="56" spans="1:39">
+    <row r="56" spans="1:39" hidden="1" x14ac:dyDescent="0.3">
       <c r="A56" s="6" t="s">
         <v>54</v>
       </c>
@@ -7585,7 +7589,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="57" spans="1:39">
+    <row r="57" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A57" s="6" t="s">
         <v>55</v>
       </c>
@@ -7704,7 +7708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:39">
+    <row r="58" spans="1:39" hidden="1" x14ac:dyDescent="0.3">
       <c r="A58" s="6" t="s">
         <v>56</v>
       </c>
@@ -7823,7 +7827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:39">
+    <row r="59" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A59" s="6" t="s">
         <v>57</v>
       </c>
@@ -7942,7 +7946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:39">
+    <row r="60" spans="1:39" hidden="1" x14ac:dyDescent="0.3">
       <c r="A60" s="6" t="s">
         <v>58</v>
       </c>
@@ -8061,7 +8065,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="61" spans="1:39">
+    <row r="61" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A61" s="6" t="s">
         <v>59</v>
       </c>
@@ -8180,7 +8184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:39">
+    <row r="62" spans="1:39" hidden="1" x14ac:dyDescent="0.3">
       <c r="A62" s="8" t="s">
         <v>60</v>
       </c>
@@ -8299,7 +8303,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="63" spans="1:39">
+    <row r="63" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A63" s="8" t="s">
         <v>61</v>
       </c>
@@ -8418,7 +8422,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:39">
+    <row r="64" spans="1:39" hidden="1" x14ac:dyDescent="0.3">
       <c r="A64" s="9" t="s">
         <v>62</v>
       </c>
@@ -8537,7 +8541,7 @@
         <v>45.8</v>
       </c>
     </row>
-    <row r="65" spans="1:39">
+    <row r="65" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A65" s="9" t="s">
         <v>63</v>
       </c>
@@ -8656,7 +8660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:39">
+    <row r="66" spans="1:39" hidden="1" x14ac:dyDescent="0.3">
       <c r="A66" s="6" t="s">
         <v>64</v>
       </c>
@@ -8775,7 +8779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:39">
+    <row r="67" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A67" s="6" t="s">
         <v>65</v>
       </c>
@@ -8894,7 +8898,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="68" spans="1:39">
+    <row r="68" spans="1:39" hidden="1" x14ac:dyDescent="0.3">
       <c r="A68" s="6" t="s">
         <v>66</v>
       </c>
@@ -9013,7 +9017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:39">
+    <row r="69" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A69" s="6" t="s">
         <v>67</v>
       </c>
@@ -9132,7 +9136,7 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="70" spans="1:39">
+    <row r="70" spans="1:39" hidden="1" x14ac:dyDescent="0.3">
       <c r="A70" s="9" t="s">
         <v>68</v>
       </c>
@@ -9251,7 +9255,7 @@
         <v>4.9000000000000004</v>
       </c>
     </row>
-    <row r="71" spans="1:39">
+    <row r="71" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A71" s="9" t="s">
         <v>69</v>
       </c>
@@ -9370,7 +9374,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="72" spans="1:39">
+    <row r="72" spans="1:39" hidden="1" x14ac:dyDescent="0.3">
       <c r="A72" s="6" t="s">
         <v>70</v>
       </c>
@@ -9489,7 +9493,7 @@
         <v>7.4</v>
       </c>
     </row>
-    <row r="73" spans="1:39">
+    <row r="73" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A73" s="6" t="s">
         <v>71</v>
       </c>
@@ -9608,7 +9612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:39">
+    <row r="74" spans="1:39" hidden="1" x14ac:dyDescent="0.3">
       <c r="A74" s="9" t="s">
         <v>72</v>
       </c>
@@ -9727,7 +9731,7 @@
         <v>12.6</v>
       </c>
     </row>
-    <row r="75" spans="1:39">
+    <row r="75" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A75" s="9" t="s">
         <v>73</v>
       </c>
@@ -9846,7 +9850,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="76" spans="1:39">
+    <row r="76" spans="1:39" hidden="1" x14ac:dyDescent="0.3">
       <c r="A76" s="9" t="s">
         <v>74</v>
       </c>
@@ -9965,7 +9969,7 @@
         <v>9.6999999999999993</v>
       </c>
     </row>
-    <row r="77" spans="1:39">
+    <row r="77" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A77" s="9" t="s">
         <v>75</v>
       </c>
@@ -10084,7 +10088,7 @@
         <v>5.3</v>
       </c>
     </row>
-    <row r="78" spans="1:39">
+    <row r="78" spans="1:39" hidden="1" x14ac:dyDescent="0.3">
       <c r="A78" s="6" t="s">
         <v>76</v>
       </c>
@@ -10203,7 +10207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:39">
+    <row r="79" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A79" s="6" t="s">
         <v>77</v>
       </c>
@@ -10322,7 +10326,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="80" spans="1:39">
+    <row r="80" spans="1:39" hidden="1" x14ac:dyDescent="0.3">
       <c r="A80" s="6" t="s">
         <v>78</v>
       </c>
@@ -10441,7 +10445,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="81" spans="1:39">
+    <row r="81" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A81" s="6" t="s">
         <v>79</v>
       </c>
@@ -10560,7 +10564,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="82" spans="1:39">
+    <row r="82" spans="1:39" hidden="1" x14ac:dyDescent="0.3">
       <c r="A82" s="8" t="s">
         <v>80</v>
       </c>
@@ -10679,7 +10683,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="83" spans="1:39">
+    <row r="83" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A83" s="8" t="s">
         <v>81</v>
       </c>
@@ -10798,7 +10802,7 @@
         <v>4.7</v>
       </c>
     </row>
-    <row r="84" spans="1:39">
+    <row r="84" spans="1:39" hidden="1" x14ac:dyDescent="0.3">
       <c r="A84" s="6" t="s">
         <v>82</v>
       </c>
@@ -10917,7 +10921,7 @@
         <v>65.900000000000006</v>
       </c>
     </row>
-    <row r="85" spans="1:39">
+    <row r="85" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A85" s="6" t="s">
         <v>83</v>
       </c>
@@ -11036,7 +11040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:39">
+    <row r="86" spans="1:39" hidden="1" x14ac:dyDescent="0.3">
       <c r="A86" s="6" t="s">
         <v>84</v>
       </c>
@@ -11155,7 +11159,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="87" spans="1:39">
+    <row r="87" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A87" s="6" t="s">
         <v>85</v>
       </c>
@@ -11274,7 +11278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:39">
+    <row r="88" spans="1:39" hidden="1" x14ac:dyDescent="0.3">
       <c r="A88" s="6" t="s">
         <v>86</v>
       </c>
@@ -11393,7 +11397,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="89" spans="1:39">
+    <row r="89" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A89" s="6" t="s">
         <v>87</v>
       </c>
@@ -11512,7 +11516,7 @@
         <v>6.2</v>
       </c>
     </row>
-    <row r="90" spans="1:39">
+    <row r="90" spans="1:39" hidden="1" x14ac:dyDescent="0.3">
       <c r="A90" s="6" t="s">
         <v>88</v>
       </c>
@@ -11631,7 +11635,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="91" spans="1:39">
+    <row r="91" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A91" s="6" t="s">
         <v>89</v>
       </c>
@@ -11750,7 +11754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:39">
+    <row r="92" spans="1:39" hidden="1" x14ac:dyDescent="0.3">
       <c r="A92" s="6" t="s">
         <v>90</v>
       </c>
@@ -11869,7 +11873,7 @@
         <v>30.3</v>
       </c>
     </row>
-    <row r="93" spans="1:39">
+    <row r="93" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A93" s="6" t="s">
         <v>91</v>
       </c>
@@ -11988,7 +11992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:39">
+    <row r="94" spans="1:39" hidden="1" x14ac:dyDescent="0.3">
       <c r="A94" s="6" t="s">
         <v>92</v>
       </c>
@@ -12107,7 +12111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:39">
+    <row r="95" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A95" s="6" t="s">
         <v>93</v>
       </c>
@@ -12226,7 +12230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:39">
+    <row r="96" spans="1:39" hidden="1" x14ac:dyDescent="0.3">
       <c r="A96" s="9" t="s">
         <v>94</v>
       </c>
@@ -12345,7 +12349,7 @@
         <v>8.3000000000000007</v>
       </c>
     </row>
-    <row r="97" spans="1:39">
+    <row r="97" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A97" s="9" t="s">
         <v>95</v>
       </c>
@@ -12464,7 +12468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:39">
+    <row r="98" spans="1:39" hidden="1" x14ac:dyDescent="0.3">
       <c r="A98" s="6" t="s">
         <v>96</v>
       </c>
@@ -12583,7 +12587,7 @@
         <v>12.9</v>
       </c>
     </row>
-    <row r="99" spans="1:39">
+    <row r="99" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A99" s="6" t="s">
         <v>97</v>
       </c>
@@ -12702,7 +12706,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="100" spans="1:39">
+    <row r="100" spans="1:39" hidden="1" x14ac:dyDescent="0.3">
       <c r="A100" s="6" t="s">
         <v>98</v>
       </c>
@@ -12821,7 +12825,7 @@
         <v>5.0999999999999996</v>
       </c>
     </row>
-    <row r="101" spans="1:39">
+    <row r="101" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A101" s="6" t="s">
         <v>99</v>
       </c>
@@ -12940,7 +12944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:39">
+    <row r="102" spans="1:39" hidden="1" x14ac:dyDescent="0.3">
       <c r="A102" s="6" t="s">
         <v>100</v>
       </c>
@@ -13059,7 +13063,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="103" spans="1:39">
+    <row r="103" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A103" s="6" t="s">
         <v>101</v>
       </c>
@@ -13178,7 +13182,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="104" spans="1:39">
+    <row r="104" spans="1:39" hidden="1" x14ac:dyDescent="0.3">
       <c r="A104" s="10" t="s">
         <v>102</v>
       </c>
@@ -13297,7 +13301,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="105" spans="1:39">
+    <row r="105" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A105" s="10" t="s">
         <v>103</v>
       </c>
@@ -13416,7 +13420,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="106" spans="1:39">
+    <row r="106" spans="1:39" hidden="1" x14ac:dyDescent="0.3">
       <c r="A106" s="8" t="s">
         <v>104</v>
       </c>
@@ -13535,7 +13539,7 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="107" spans="1:39">
+    <row r="107" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A107" s="8" t="s">
         <v>105</v>
       </c>
@@ -13654,7 +13658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:39">
+    <row r="108" spans="1:39" hidden="1" x14ac:dyDescent="0.3">
       <c r="A108" s="6" t="s">
         <v>106</v>
       </c>
@@ -13773,7 +13777,7 @@
         <v>22.5</v>
       </c>
     </row>
-    <row r="109" spans="1:39">
+    <row r="109" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A109" s="6" t="s">
         <v>107</v>
       </c>
@@ -13892,7 +13896,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="110" spans="1:39">
+    <row r="110" spans="1:39" hidden="1" x14ac:dyDescent="0.3">
       <c r="A110" s="6" t="s">
         <v>108</v>
       </c>
@@ -14011,7 +14015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:39">
+    <row r="111" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A111" s="6" t="s">
         <v>109</v>
       </c>
@@ -14130,7 +14134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:39">
+    <row r="112" spans="1:39" hidden="1" x14ac:dyDescent="0.3">
       <c r="A112" s="6" t="s">
         <v>110</v>
       </c>
@@ -14249,7 +14253,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="113" spans="1:39">
+    <row r="113" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A113" s="6" t="s">
         <v>111</v>
       </c>
@@ -14368,7 +14372,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="114" spans="1:39">
+    <row r="114" spans="1:39" hidden="1" x14ac:dyDescent="0.3">
       <c r="A114" s="6" t="s">
         <v>112</v>
       </c>
@@ -14487,7 +14491,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="115" spans="1:39">
+    <row r="115" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A115" s="6" t="s">
         <v>113</v>
       </c>
@@ -14606,7 +14610,7 @@
         <v>34.5</v>
       </c>
     </row>
-    <row r="116" spans="1:39">
+    <row r="116" spans="1:39" hidden="1" x14ac:dyDescent="0.3">
       <c r="A116" s="9" t="s">
         <v>114</v>
       </c>
@@ -14725,7 +14729,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="117" spans="1:39">
+    <row r="117" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A117" s="9" t="s">
         <v>115</v>
       </c>
@@ -14844,7 +14848,7 @@
         <v>4.9000000000000004</v>
       </c>
     </row>
-    <row r="118" spans="1:39">
+    <row r="118" spans="1:39" hidden="1" x14ac:dyDescent="0.3">
       <c r="A118" s="6" t="s">
         <v>116</v>
       </c>
@@ -14963,7 +14967,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="119" spans="1:39">
+    <row r="119" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A119" s="6" t="s">
         <v>117</v>
       </c>
@@ -15082,7 +15086,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="120" spans="1:39">
+    <row r="120" spans="1:39" hidden="1" x14ac:dyDescent="0.3">
       <c r="A120" s="6" t="s">
         <v>118</v>
       </c>
@@ -15201,7 +15205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:39">
+    <row r="121" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A121" s="6" t="s">
         <v>119</v>
       </c>
@@ -15320,8 +15324,8 @@
         <v>8.1999999999999993</v>
       </c>
     </row>
-    <row r="122" spans="1:39">
-      <c r="A122" s="11" t="s">
+    <row r="122" spans="1:39" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A122" s="7" t="s">
         <v>120</v>
       </c>
       <c r="B122" s="2">
@@ -15439,8 +15443,8 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="123" spans="1:39">
-      <c r="A123" s="11" t="s">
+    <row r="123" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A123" s="7" t="s">
         <v>121</v>
       </c>
       <c r="B123" s="2">
@@ -15558,8 +15562,8 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="124" spans="1:39">
-      <c r="A124" s="11" t="s">
+    <row r="124" spans="1:39" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A124" s="7" t="s">
         <v>122</v>
       </c>
       <c r="B124" s="2">
@@ -15677,8 +15681,8 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="125" spans="1:39">
-      <c r="A125" s="11" t="s">
+    <row r="125" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A125" s="7" t="s">
         <v>123</v>
       </c>
       <c r="B125" s="2">
@@ -15796,7 +15800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:39">
+    <row r="126" spans="1:39" hidden="1" x14ac:dyDescent="0.3">
       <c r="A126" s="12" t="s">
         <v>124</v>
       </c>
@@ -15915,7 +15919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:39">
+    <row r="127" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A127" s="12" t="s">
         <v>125</v>
       </c>
@@ -16034,7 +16038,7 @@
         <v>39.1</v>
       </c>
     </row>
-    <row r="128" spans="1:39">
+    <row r="128" spans="1:39" hidden="1" x14ac:dyDescent="0.3">
       <c r="A128" s="12" t="s">
         <v>126</v>
       </c>
@@ -16153,7 +16157,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="129" spans="1:39">
+    <row r="129" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A129" s="12" t="s">
         <v>127</v>
       </c>
@@ -16272,8 +16276,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:39">
-      <c r="A130" s="11" t="s">
+    <row r="130" spans="1:39" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A130" s="7" t="s">
         <v>128</v>
       </c>
       <c r="B130" s="2">
@@ -16391,8 +16395,8 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="131" spans="1:39">
-      <c r="A131" s="11" t="s">
+    <row r="131" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A131" s="7" t="s">
         <v>129</v>
       </c>
       <c r="B131" s="2">
@@ -16510,8 +16514,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:39">
-      <c r="A132" s="11" t="s">
+    <row r="132" spans="1:39" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A132" s="7" t="s">
         <v>130</v>
       </c>
       <c r="B132" s="2">
@@ -16629,8 +16633,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:39">
-      <c r="A133" s="11" t="s">
+    <row r="133" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A133" s="7" t="s">
         <v>131</v>
       </c>
       <c r="B133" s="2">
@@ -16748,8 +16752,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:39">
-      <c r="A134" s="11" t="s">
+    <row r="134" spans="1:39" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A134" s="7" t="s">
         <v>132</v>
       </c>
       <c r="B134" s="2">
@@ -16867,8 +16871,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="135" spans="1:39">
-      <c r="A135" s="11" t="s">
+    <row r="135" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A135" s="7" t="s">
         <v>133</v>
       </c>
       <c r="B135" s="2">
@@ -16986,8 +16990,8 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="136" spans="1:39">
-      <c r="A136" s="11" t="s">
+    <row r="136" spans="1:39" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A136" s="7" t="s">
         <v>134</v>
       </c>
       <c r="B136" s="2">
@@ -17105,8 +17109,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:39">
-      <c r="A137" s="11" t="s">
+    <row r="137" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A137" s="7" t="s">
         <v>135</v>
       </c>
       <c r="B137" s="2">
@@ -17224,8 +17228,8 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="138" spans="1:39">
-      <c r="A138" s="13" t="s">
+    <row r="138" spans="1:39" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A138" s="11" t="s">
         <v>136</v>
       </c>
       <c r="B138" s="2">
@@ -17343,8 +17347,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:39">
-      <c r="A139" s="13" t="s">
+    <row r="139" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A139" s="11" t="s">
         <v>137</v>
       </c>
       <c r="B139" s="2">
@@ -17463,6 +17467,14 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:AM139" xr:uid="{1A0F5E17-91F9-4612-AFB3-7FBB963F79B5}">
+    <filterColumn colId="0">
+      <customFilters>
+        <customFilter val="*Offshore*"/>
+      </customFilters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>